--- a/myapp/scripts/public/exports/timetables/1.xlsx
+++ b/myapp/scripts/public/exports/timetables/1.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="1stTerm_Monday" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="1stTerm_Tuesday" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="1stTerm_Wednesday" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="1stTerm_Thursday" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="1stTerm_Friday" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="1stTerm_Saturday" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2ndTerm_Monday" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2ndTerm_Tuesday" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2ndTerm_Wednesday" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2ndTerm_Thursday" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2ndTerm_Friday" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2ndTerm_Saturday" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Overview_1stTerm" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Overview_2ndTerm" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="1stTerm_Monday" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="1stTerm_Tuesday" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="1stTerm_Wednesday" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="1stTerm_Thursday" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="1stTerm_Friday" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="1stTerm_Saturday" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="2ndTerm_Monday" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="2ndTerm_Tuesday" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="2ndTerm_Wednesday" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="2ndTerm_Thursday" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="2ndTerm_Friday" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="2ndTerm_Saturday" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="Overview_1stTerm" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="Overview_2ndTerm" sheetId="14" state="visible" r:id="rId14"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -544,27 +544,27 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
+          <t>CS_1st_1_4</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
           <t>CS_2nd_3_19</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>IT_2nd_11_77</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>vacant</t>
-        </is>
-      </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>CS_1st_1_4</t>
+          <t>IT_1st_10_68</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>CS_1st_2_12</t>
+          <t>vacant</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -574,37 +574,37 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>IT_1st_9_64</t>
+          <t>CS_1st_1_8</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>vacant</t>
+          <t>CS_1st_2_16</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>vacant</t>
+          <t>IT_1st_10_72</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>CS_1st_1_8</t>
+          <t>vacant</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
+          <t>CS_3rd_6_41</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
           <t>CS_2nd_3_17</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>CS_1st_1_1</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>CS_3rd_5_33</t>
         </is>
       </c>
     </row>
@@ -631,27 +631,27 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
+          <t>CS_1st_1_4</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
           <t>CS_2nd_3_19</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>IT_2nd_11_77</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>vacant</t>
-        </is>
-      </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>CS_1st_1_4</t>
+          <t>IT_1st_10_68</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>CS_1st_2_12</t>
+          <t>vacant</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -661,37 +661,37 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>IT_1st_9_64</t>
+          <t>CS_1st_1_8</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>vacant</t>
+          <t>CS_1st_2_16</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>vacant</t>
+          <t>IT_1st_10_72</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>CS_1st_1_8</t>
+          <t>vacant</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
+          <t>CS_3rd_6_41</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
           <t>CS_2nd_3_17</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>CS_1st_1_1</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>CS_3rd_5_33</t>
         </is>
       </c>
     </row>
@@ -703,42 +703,42 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>CS_3rd_5_34</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>CS_1st_2_15</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
           <t>CS_1st_1_7</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>CS_3rd_5_31</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>CS_1st_2_16</t>
-        </is>
-      </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>CS_1st_1_4</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
           <t>CS_2nd_3_19</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>IT_2nd_11_77</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>vacant</t>
-        </is>
-      </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>CS_1st_1_4</t>
+          <t>IT_1st_10_68</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>CS_1st_2_12</t>
+          <t>vacant</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -768,17 +768,17 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
+          <t>CS_3rd_6_41</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
           <t>CS_2nd_3_17</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>CS_1st_1_1</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>CS_3rd_5_33</t>
         </is>
       </c>
     </row>
@@ -790,42 +790,42 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>CS_3rd_5_34</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>CS_1st_2_15</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
           <t>CS_1st_1_7</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>CS_3rd_5_31</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>CS_1st_2_16</t>
-        </is>
-      </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>CS_1st_1_4</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
           <t>CS_2nd_3_19</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>IT_2nd_11_77</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>vacant</t>
-        </is>
-      </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>CS_1st_1_4</t>
+          <t>IT_1st_10_68</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>CS_1st_2_12</t>
+          <t>vacant</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -855,17 +855,17 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
+          <t>CS_3rd_6_41</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
           <t>CS_2nd_3_17</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
+      <c r="Q5" t="inlineStr">
         <is>
           <t>CS_1st_1_1</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>CS_3rd_5_33</t>
         </is>
       </c>
     </row>
@@ -877,42 +877,42 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>IT_1st_9_59</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>CS_3rd_6_39</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
           <t>CS_1st_2_10</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>CS_3rd_6_42</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>IT_1st_9_58</t>
-        </is>
-      </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>CS_1st_1_4</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
           <t>CS_2nd_3_19</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>IT_2nd_11_77</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>vacant</t>
-        </is>
-      </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>CS_1st_1_4</t>
+          <t>IT_1st_10_68</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>CS_1st_2_12</t>
+          <t>vacant</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -942,17 +942,17 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>CS_3rd_6_40</t>
+          <t>CS_4th_8_52</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
+          <t>CS_3rd_5_33</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
           <t>CS_1st_2_9</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>CS_3rd_5_32</t>
         </is>
       </c>
     </row>
@@ -964,42 +964,42 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>IT_1st_9_59</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>CS_3rd_6_39</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
           <t>CS_1st_2_10</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>CS_3rd_6_42</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>IT_1st_9_58</t>
-        </is>
-      </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>CS_1st_1_4</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
           <t>CS_2nd_3_19</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>IT_2nd_11_77</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>vacant</t>
-        </is>
-      </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>CS_1st_1_4</t>
+          <t>IT_1st_10_68</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>CS_1st_2_12</t>
+          <t>vacant</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -1029,17 +1029,17 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>CS_3rd_6_40</t>
+          <t>CS_4th_8_52</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
+          <t>CS_3rd_5_33</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
           <t>CS_1st_2_9</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>CS_3rd_5_32</t>
         </is>
       </c>
     </row>
@@ -1051,42 +1051,42 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>CS_1st_2_15</t>
+          <t>IT_2nd_11_75</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
+          <t>IT_1st_9_58</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>CS_1st_2_12</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>CS_1st_1_4</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>CS_2nd_3_19</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>IT_2nd_11_77</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
           <t>IT_1st_10_68</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>vacant</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>CS_2nd_3_19</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>IT_2nd_11_77</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>vacant</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>CS_1st_1_4</t>
-        </is>
-      </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>CS_1st_2_12</t>
+          <t>vacant</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -1116,17 +1116,17 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>CS_3rd_6_40</t>
+          <t>CS_4th_8_52</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
+          <t>CS_3rd_5_33</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
           <t>CS_1st_2_9</t>
-        </is>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>CS_3rd_5_32</t>
         </is>
       </c>
     </row>
@@ -1138,42 +1138,42 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>CS_1st_2_15</t>
+          <t>IT_2nd_11_75</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
+          <t>IT_1st_9_58</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>CS_1st_2_12</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>CS_1st_1_4</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>CS_2nd_3_19</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>IT_2nd_11_77</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
           <t>IT_1st_10_68</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>vacant</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>CS_2nd_3_19</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>IT_2nd_11_77</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>vacant</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>CS_1st_1_4</t>
-        </is>
-      </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>CS_1st_2_12</t>
+          <t>vacant</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -1203,17 +1203,17 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>CS_3rd_6_40</t>
+          <t>CS_4th_8_52</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
+          <t>CS_3rd_5_33</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
           <t>CS_1st_2_9</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>CS_3rd_5_32</t>
         </is>
       </c>
     </row>
@@ -1225,27 +1225,27 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>CS_3rd_5_34</t>
+          <t>IT_2nd_11_76</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>IT_1st_10_68</t>
+          <t>IT_1st_9_64</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>vacant</t>
+          <t>CS_1st_2_12</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>vacant</t>
+          <t>CS_2nd_4_26</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>IT_2nd_12_85</t>
+          <t>IT_1st_9_60</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -1255,7 +1255,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>CS_2nd_4_26</t>
+          <t>vacant</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1290,17 +1290,17 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>CS_4th_7_48</t>
+          <t>IT_2nd_11_73</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
+          <t>IT_2nd_11_74</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
           <t>CS_2nd_3_18</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>CS_4th_7_49</t>
         </is>
       </c>
     </row>
@@ -1312,27 +1312,27 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>CS_3rd_5_34</t>
+          <t>IT_2nd_11_76</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>IT_1st_10_68</t>
+          <t>IT_1st_9_64</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>vacant</t>
+          <t>CS_1st_2_12</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>vacant</t>
+          <t>CS_2nd_4_26</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>IT_2nd_12_85</t>
+          <t>IT_1st_9_60</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -1342,7 +1342,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>CS_2nd_4_26</t>
+          <t>vacant</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1377,17 +1377,17 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>CS_4th_7_48</t>
+          <t>IT_2nd_11_73</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
+          <t>IT_2nd_11_74</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
           <t>CS_2nd_3_18</t>
-        </is>
-      </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>CS_4th_7_49</t>
         </is>
       </c>
     </row>
@@ -1399,27 +1399,27 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>CS_3rd_6_39</t>
+          <t>vacant</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>IT_1st_10_68</t>
+          <t>IT_1st_10_67</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>vacant</t>
+          <t>CS_1st_2_12</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>vacant</t>
+          <t>CS_2nd_4_26</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>IT_2nd_12_85</t>
+          <t>IT_1st_9_60</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -1429,7 +1429,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>CS_2nd_4_26</t>
+          <t>vacant</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1464,17 +1464,17 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>CS_4th_7_48</t>
+          <t>IT_2nd_11_73</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
+          <t>IT_2nd_11_74</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
           <t>CS_2nd_3_18</t>
-        </is>
-      </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>CS_4th_7_49</t>
         </is>
       </c>
     </row>
@@ -1486,27 +1486,27 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>CS_3rd_6_39</t>
+          <t>vacant</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>IT_1st_10_68</t>
+          <t>IT_1st_10_67</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>vacant</t>
+          <t>CS_1st_2_12</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>vacant</t>
+          <t>CS_2nd_4_26</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>IT_2nd_12_85</t>
+          <t>IT_1st_9_60</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -1516,7 +1516,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>CS_2nd_4_26</t>
+          <t>vacant</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1551,17 +1551,17 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>CS_4th_7_48</t>
+          <t>IT_2nd_11_73</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
+          <t>IT_2nd_11_74</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
           <t>CS_2nd_3_18</t>
-        </is>
-      </c>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>CS_4th_7_49</t>
         </is>
       </c>
     </row>
@@ -1573,27 +1573,27 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>IT_1st_9_59</t>
+          <t>vacant</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>IT_1st_10_68</t>
+          <t>IT_1st_10_66</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>vacant</t>
+          <t>CS_1st_2_12</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>vacant</t>
+          <t>CS_2nd_4_26</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>IT_2nd_12_85</t>
+          <t>IT_1st_9_60</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -1603,7 +1603,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>CS_2nd_4_26</t>
+          <t>vacant</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1638,17 +1638,17 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>CS_4th_8_52</t>
+          <t>IT_3rd_13_89</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
         <is>
+          <t>IT_2nd_12_81</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
           <t>CS_2nd_4_24</t>
-        </is>
-      </c>
-      <c r="Q14" t="inlineStr">
-        <is>
-          <t>CS_4th_8_54</t>
         </is>
       </c>
     </row>
@@ -1660,27 +1660,27 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>IT_1st_9_59</t>
+          <t>vacant</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>IT_1st_10_68</t>
+          <t>IT_1st_10_66</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>vacant</t>
+          <t>CS_1st_2_12</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>vacant</t>
+          <t>CS_2nd_4_26</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>IT_2nd_12_85</t>
+          <t>IT_1st_9_60</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -1690,7 +1690,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>CS_2nd_4_26</t>
+          <t>vacant</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1725,17 +1725,17 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>CS_4th_8_52</t>
+          <t>IT_3rd_13_89</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
         <is>
+          <t>IT_2nd_12_81</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
           <t>CS_2nd_4_24</t>
-        </is>
-      </c>
-      <c r="Q15" t="inlineStr">
-        <is>
-          <t>CS_4th_8_54</t>
         </is>
       </c>
     </row>
@@ -1747,27 +1747,27 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>IT_1st_9_63</t>
+          <t>vacant</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>IT_1st_10_66</t>
+          <t>vacant</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>vacant</t>
+          <t>CS_3rd_5_31</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>vacant</t>
+          <t>CS_2nd_4_26</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>IT_2nd_12_85</t>
+          <t>IT_1st_9_60</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -1777,7 +1777,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>CS_2nd_4_26</t>
+          <t>vacant</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1812,17 +1812,17 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>CS_4th_8_52</t>
+          <t>IT_3rd_13_89</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
         <is>
+          <t>IT_2nd_12_81</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
           <t>CS_2nd_4_24</t>
-        </is>
-      </c>
-      <c r="Q16" t="inlineStr">
-        <is>
-          <t>CS_4th_8_54</t>
         </is>
       </c>
     </row>
@@ -1834,27 +1834,27 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>IT_1st_9_63</t>
+          <t>vacant</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>IT_1st_10_66</t>
+          <t>vacant</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>vacant</t>
+          <t>CS_3rd_5_31</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>vacant</t>
+          <t>CS_2nd_4_26</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>IT_2nd_12_85</t>
+          <t>IT_1st_9_60</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>CS_2nd_4_26</t>
+          <t>vacant</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1899,17 +1899,17 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>CS_4th_8_52</t>
+          <t>IT_3rd_13_89</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
         <is>
+          <t>IT_2nd_12_81</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
           <t>CS_2nd_4_24</t>
-        </is>
-      </c>
-      <c r="Q17" t="inlineStr">
-        <is>
-          <t>CS_4th_8_54</t>
         </is>
       </c>
     </row>
@@ -1921,17 +1921,17 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>IT_1st_10_67</t>
+          <t>vacant</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>IT_1st_10_72</t>
+          <t>vacant</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>vacant</t>
+          <t>CS_3rd_6_42</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1986,17 +1986,17 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>CS_4th_8_53</t>
+          <t>IT_3rd_14_98</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
         <is>
+          <t>IT_3rd_13_90</t>
+        </is>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
           <t>CS_2nd_4_25</t>
-        </is>
-      </c>
-      <c r="Q18" t="inlineStr">
-        <is>
-          <t>IT_1st_10_65</t>
         </is>
       </c>
     </row>
@@ -2008,17 +2008,17 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>IT_1st_10_67</t>
+          <t>vacant</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>IT_1st_10_72</t>
+          <t>vacant</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>vacant</t>
+          <t>CS_3rd_6_42</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -2073,17 +2073,17 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>CS_4th_8_53</t>
+          <t>IT_3rd_14_98</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
         <is>
+          <t>IT_3rd_13_90</t>
+        </is>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
           <t>CS_2nd_4_25</t>
-        </is>
-      </c>
-      <c r="Q19" t="inlineStr">
-        <is>
-          <t>IT_1st_10_65</t>
         </is>
       </c>
     </row>
@@ -2095,17 +2095,17 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>IT_2nd_11_75</t>
+          <t>vacant</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>IT_1st_10_71</t>
+          <t>vacant</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>vacant</t>
+          <t>IT_1st_9_63</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -2160,17 +2160,17 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>CS_4th_8_53</t>
+          <t>IT_3rd_14_98</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
         <is>
+          <t>IT_3rd_13_90</t>
+        </is>
+      </c>
+      <c r="Q20" t="inlineStr">
+        <is>
           <t>CS_2nd_4_25</t>
-        </is>
-      </c>
-      <c r="Q20" t="inlineStr">
-        <is>
-          <t>IT_1st_10_65</t>
         </is>
       </c>
     </row>
@@ -2182,17 +2182,17 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>IT_2nd_11_75</t>
+          <t>vacant</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>IT_1st_10_71</t>
+          <t>vacant</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>vacant</t>
+          <t>IT_1st_9_63</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -2247,17 +2247,17 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>CS_4th_8_53</t>
+          <t>IT_3rd_14_98</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
         <is>
+          <t>IT_3rd_13_90</t>
+        </is>
+      </c>
+      <c r="Q21" t="inlineStr">
+        <is>
           <t>CS_2nd_4_25</t>
-        </is>
-      </c>
-      <c r="Q21" t="inlineStr">
-        <is>
-          <t>IT_1st_10_65</t>
         </is>
       </c>
     </row>
@@ -11380,32 +11380,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>CLV2</t>
+          <t>CLV3</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CLV2</t>
+          <t>CLV3</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>CLV2</t>
+          <t>CLV3</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>CLV2</t>
+          <t>CLV3</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>CLV2</t>
+          <t>CLV3</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>CLV2</t>
+          <t>CLV3</t>
         </is>
       </c>
     </row>
@@ -11417,32 +11417,32 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>gym4</t>
+          <t>gym1</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>gym4</t>
+          <t>gym1</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>gym4</t>
+          <t>gym1</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>gym4</t>
+          <t>gym1</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>gym4</t>
+          <t>gym1</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>gym4</t>
+          <t>gym1</t>
         </is>
       </c>
     </row>
@@ -11491,32 +11491,32 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>RM301</t>
+          <t>AVR</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>RM301</t>
+          <t>AVR</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>RM301</t>
+          <t>AVR</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>RM301</t>
+          <t>AVR</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>RM301</t>
+          <t>AVR</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>RM301</t>
+          <t>AVR</t>
         </is>
       </c>
     </row>
@@ -11528,32 +11528,32 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>CLV2</t>
+          <t>CLV3</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>CLV2</t>
+          <t>CLV3</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>CLV2</t>
+          <t>CLV3</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>CLV2</t>
+          <t>CLV3</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>CLV2</t>
+          <t>CLV3</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>CLV2</t>
+          <t>CLV3</t>
         </is>
       </c>
     </row>
@@ -11565,32 +11565,32 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>gym5</t>
+          <t>AVR</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>gym5</t>
+          <t>AVR</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>gym5</t>
+          <t>AVR</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>gym5</t>
+          <t>AVR</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>gym5</t>
+          <t>AVR</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>gym5</t>
+          <t>AVR</t>
         </is>
       </c>
     </row>
@@ -11639,32 +11639,32 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>gym1</t>
+          <t>gym2</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>gym1</t>
+          <t>gym2</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>gym1</t>
+          <t>gym2</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>gym1</t>
+          <t>gym2</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>gym1</t>
+          <t>gym2</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>gym1</t>
+          <t>gym2</t>
         </is>
       </c>
     </row>
@@ -11676,32 +11676,32 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>CLV1</t>
+          <t>CLV2</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>CLV1</t>
+          <t>CLV2</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>CLV1</t>
+          <t>CLV2</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>CLV1</t>
+          <t>CLV2</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>CLV1</t>
+          <t>CLV2</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>CLV1</t>
+          <t>CLV2</t>
         </is>
       </c>
     </row>
@@ -11713,32 +11713,32 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>CLV2</t>
+          <t>CLV3</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>CLV2</t>
+          <t>CLV3</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>CLV2</t>
+          <t>CLV3</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>CLV2</t>
+          <t>CLV3</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>CLV2</t>
+          <t>CLV3</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>CLV2</t>
+          <t>CLV3</t>
         </is>
       </c>
     </row>
@@ -11750,32 +11750,32 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>gym4</t>
+          <t>gym1</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>gym4</t>
+          <t>gym1</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>gym4</t>
+          <t>gym1</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>gym4</t>
+          <t>gym1</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>gym4</t>
+          <t>gym1</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>gym4</t>
+          <t>gym1</t>
         </is>
       </c>
     </row>
@@ -11787,32 +11787,32 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>CLV2</t>
+          <t>CLV3</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>CLV2</t>
+          <t>CLV3</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>CLV2</t>
+          <t>CLV3</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>CLV2</t>
+          <t>CLV3</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>CLV2</t>
+          <t>CLV3</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>CLV2</t>
+          <t>CLV3</t>
         </is>
       </c>
     </row>
@@ -11824,32 +11824,32 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>CLV2</t>
+          <t>CLV3</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>CLV2</t>
+          <t>CLV3</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>CLV2</t>
+          <t>CLV3</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>CLV2</t>
+          <t>CLV3</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>CLV2</t>
+          <t>CLV3</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>CLV2</t>
+          <t>CLV3</t>
         </is>
       </c>
     </row>
@@ -11861,32 +11861,32 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>CLV3</t>
+          <t>CLV2</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>CLV3</t>
+          <t>CLV2</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>CLV3</t>
+          <t>CLV2</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>CLV3</t>
+          <t>CLV2</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>CLV3</t>
+          <t>CLV2</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>CLV3</t>
+          <t>CLV2</t>
         </is>
       </c>
     </row>
@@ -11898,32 +11898,32 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>RM302</t>
+          <t>AVR</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>RM302</t>
+          <t>AVR</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>RM302</t>
+          <t>AVR</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>RM302</t>
+          <t>AVR</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>RM302</t>
+          <t>AVR</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>RM302</t>
+          <t>AVR</t>
         </is>
       </c>
     </row>
@@ -12009,32 +12009,32 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>CLV2</t>
+          <t>CLV1</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>CLV2</t>
+          <t>CLV1</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>CLV2</t>
+          <t>CLV1</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>CLV2</t>
+          <t>CLV1</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>CLV2</t>
+          <t>CLV1</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>CLV2</t>
+          <t>CLV1</t>
         </is>
       </c>
     </row>
@@ -12046,32 +12046,32 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>RM301</t>
+          <t>RM302</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>RM301</t>
+          <t>RM302</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>RM301</t>
+          <t>RM302</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>RM301</t>
+          <t>RM302</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>RM301</t>
+          <t>RM302</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>RM301</t>
+          <t>RM302</t>
         </is>
       </c>
     </row>
@@ -12083,32 +12083,32 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>RM302</t>
+          <t>AVR</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>RM302</t>
+          <t>AVR</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>RM302</t>
+          <t>AVR</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>RM302</t>
+          <t>AVR</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>RM302</t>
+          <t>AVR</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>RM302</t>
+          <t>AVR</t>
         </is>
       </c>
     </row>
@@ -12120,32 +12120,32 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>CLV1</t>
+          <t>CLV3</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>CLV1</t>
+          <t>CLV3</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>CLV1</t>
+          <t>CLV3</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>CLV1</t>
+          <t>CLV3</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>CLV1</t>
+          <t>CLV3</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>CLV1</t>
+          <t>CLV3</t>
         </is>
       </c>
     </row>
@@ -12157,32 +12157,32 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>CLV2</t>
+          <t>CLV3</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>CLV2</t>
+          <t>CLV3</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>CLV2</t>
+          <t>CLV3</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>CLV2</t>
+          <t>CLV3</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>CLV2</t>
+          <t>CLV3</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>CLV2</t>
+          <t>CLV3</t>
         </is>
       </c>
     </row>
@@ -12194,32 +12194,32 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>CLV1</t>
+          <t>CLV3</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>CLV1</t>
+          <t>CLV3</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>CLV1</t>
+          <t>CLV3</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>CLV1</t>
+          <t>CLV3</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>CLV1</t>
+          <t>CLV3</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>CLV1</t>
+          <t>CLV3</t>
         </is>
       </c>
     </row>
@@ -12305,32 +12305,32 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>CLV1</t>
+          <t>CLV3</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>CLV1</t>
+          <t>CLV3</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>CLV1</t>
+          <t>CLV3</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>CLV1</t>
+          <t>CLV3</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>CLV1</t>
+          <t>CLV3</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>CLV1</t>
+          <t>CLV3</t>
         </is>
       </c>
     </row>
@@ -12379,32 +12379,32 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>CLV2</t>
+          <t>CLV3</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>CLV2</t>
+          <t>CLV3</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>CLV2</t>
+          <t>CLV3</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>CLV2</t>
+          <t>CLV3</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>CLV2</t>
+          <t>CLV3</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>CLV2</t>
+          <t>CLV3</t>
         </is>
       </c>
     </row>
@@ -12453,32 +12453,32 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>RM301</t>
+          <t>gym2</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>RM301</t>
+          <t>gym2</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>RM301</t>
+          <t>gym2</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>RM301</t>
+          <t>gym2</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>RM301</t>
+          <t>gym2</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>RM301</t>
+          <t>gym2</t>
         </is>
       </c>
     </row>
@@ -12490,32 +12490,32 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>AVR</t>
+          <t>RM302</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>AVR</t>
+          <t>RM302</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>AVR</t>
+          <t>RM302</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>AVR</t>
+          <t>RM302</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>AVR</t>
+          <t>RM302</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>AVR</t>
+          <t>RM302</t>
         </is>
       </c>
     </row>
@@ -12564,32 +12564,32 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>RM301</t>
+          <t>RM302</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>RM301</t>
+          <t>RM302</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>RM301</t>
+          <t>RM302</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>RM301</t>
+          <t>RM302</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>RM301</t>
+          <t>RM302</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>RM301</t>
+          <t>RM302</t>
         </is>
       </c>
     </row>
@@ -12601,32 +12601,32 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>RM302</t>
+          <t>gym4</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>RM302</t>
+          <t>gym4</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>RM302</t>
+          <t>gym4</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>RM302</t>
+          <t>gym4</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>RM302</t>
+          <t>gym4</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>RM302</t>
+          <t>gym4</t>
         </is>
       </c>
     </row>
@@ -12749,32 +12749,32 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>gym2</t>
+          <t>gym3</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>gym2</t>
+          <t>gym3</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>gym2</t>
+          <t>gym3</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>gym2</t>
+          <t>gym3</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>gym2</t>
+          <t>gym3</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>gym2</t>
+          <t>gym3</t>
         </is>
       </c>
     </row>
@@ -12786,32 +12786,32 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>CLV1</t>
+          <t>CLV2</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>CLV1</t>
+          <t>CLV2</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>CLV1</t>
+          <t>CLV2</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>CLV1</t>
+          <t>CLV2</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>CLV1</t>
+          <t>CLV2</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>CLV1</t>
+          <t>CLV2</t>
         </is>
       </c>
     </row>
@@ -12823,32 +12823,32 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>CLV2</t>
+          <t>CLV1</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>CLV2</t>
+          <t>CLV1</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>CLV2</t>
+          <t>CLV1</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>CLV2</t>
+          <t>CLV1</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>CLV2</t>
+          <t>CLV1</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>CLV2</t>
+          <t>CLV1</t>
         </is>
       </c>
     </row>
@@ -12860,32 +12860,32 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>RM302</t>
+          <t>AVR</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>RM302</t>
+          <t>AVR</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>RM302</t>
+          <t>AVR</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>RM302</t>
+          <t>AVR</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>RM302</t>
+          <t>AVR</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>RM302</t>
+          <t>AVR</t>
         </is>
       </c>
     </row>
@@ -12897,32 +12897,32 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>RM301</t>
+          <t>AVR</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>RM301</t>
+          <t>AVR</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>RM301</t>
+          <t>AVR</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>RM301</t>
+          <t>AVR</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>RM301</t>
+          <t>AVR</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>RM301</t>
+          <t>AVR</t>
         </is>
       </c>
     </row>
@@ -12971,32 +12971,32 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>CLV2</t>
+          <t>CLV3</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>CLV2</t>
+          <t>CLV3</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>CLV2</t>
+          <t>CLV3</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>CLV2</t>
+          <t>CLV3</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>CLV2</t>
+          <t>CLV3</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>CLV2</t>
+          <t>CLV3</t>
         </is>
       </c>
     </row>
@@ -13008,32 +13008,32 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>CLV3</t>
+          <t>CLV2</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>CLV3</t>
+          <t>CLV2</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>CLV3</t>
+          <t>CLV2</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>CLV3</t>
+          <t>CLV2</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>CLV3</t>
+          <t>CLV2</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>CLV3</t>
+          <t>CLV2</t>
         </is>
       </c>
     </row>
@@ -13045,32 +13045,32 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>CLV3</t>
+          <t>CLV1</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>CLV3</t>
+          <t>CLV1</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>CLV3</t>
+          <t>CLV1</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>CLV3</t>
+          <t>CLV1</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>CLV3</t>
+          <t>CLV1</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>CLV3</t>
+          <t>CLV1</t>
         </is>
       </c>
     </row>
@@ -13082,32 +13082,32 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>CLV1</t>
+          <t>CLV2</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>CLV1</t>
+          <t>CLV2</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>CLV1</t>
+          <t>CLV2</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>CLV1</t>
+          <t>CLV2</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>CLV1</t>
+          <t>CLV2</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>CLV1</t>
+          <t>CLV2</t>
         </is>
       </c>
     </row>
@@ -13156,32 +13156,32 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>CLV1</t>
+          <t>CLV2</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>CLV1</t>
+          <t>CLV2</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>CLV1</t>
+          <t>CLV2</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>CLV1</t>
+          <t>CLV2</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>CLV1</t>
+          <t>CLV2</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>CLV1</t>
+          <t>CLV2</t>
         </is>
       </c>
     </row>
@@ -13193,32 +13193,32 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>CLV1</t>
+          <t>CLV3</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>CLV1</t>
+          <t>CLV3</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>CLV1</t>
+          <t>CLV3</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>CLV1</t>
+          <t>CLV3</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>CLV1</t>
+          <t>CLV3</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>CLV1</t>
+          <t>CLV3</t>
         </is>
       </c>
     </row>
@@ -13230,32 +13230,32 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>CLV2</t>
+          <t>CLV1</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>CLV2</t>
+          <t>CLV1</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>CLV2</t>
+          <t>CLV1</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>CLV2</t>
+          <t>CLV1</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>CLV2</t>
+          <t>CLV1</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>CLV2</t>
+          <t>CLV1</t>
         </is>
       </c>
     </row>
@@ -13267,32 +13267,32 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>CLV2</t>
+          <t>CLV3</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>CLV2</t>
+          <t>CLV3</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>CLV2</t>
+          <t>CLV3</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>CLV2</t>
+          <t>CLV3</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>CLV2</t>
+          <t>CLV3</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>CLV2</t>
+          <t>CLV3</t>
         </is>
       </c>
     </row>
@@ -13341,32 +13341,32 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>main5</t>
+          <t>main2</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>main5</t>
+          <t>main2</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>main5</t>
+          <t>main2</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>main5</t>
+          <t>main2</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>main5</t>
+          <t>main2</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>main5</t>
+          <t>main2</t>
         </is>
       </c>
     </row>
@@ -13378,32 +13378,32 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>RM301</t>
+          <t>AVR</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>RM301</t>
+          <t>AVR</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>RM301</t>
+          <t>AVR</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>RM301</t>
+          <t>AVR</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>RM301</t>
+          <t>AVR</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>RM301</t>
+          <t>AVR</t>
         </is>
       </c>
     </row>
@@ -13415,32 +13415,32 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>AVR</t>
+          <t>main3</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>AVR</t>
+          <t>main3</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>AVR</t>
+          <t>main3</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>AVR</t>
+          <t>main3</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>AVR</t>
+          <t>main3</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>AVR</t>
+          <t>main3</t>
         </is>
       </c>
     </row>
@@ -13452,32 +13452,32 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>RM301</t>
+          <t>RM302</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>RM301</t>
+          <t>RM302</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>RM301</t>
+          <t>RM302</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>RM301</t>
+          <t>RM302</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>RM301</t>
+          <t>RM302</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>RM301</t>
+          <t>RM302</t>
         </is>
       </c>
     </row>
@@ -13489,32 +13489,32 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>main2</t>
+          <t>RM302</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>main2</t>
+          <t>RM302</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>main2</t>
+          <t>RM302</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>main2</t>
+          <t>RM302</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>main2</t>
+          <t>RM302</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>main2</t>
+          <t>RM302</t>
         </is>
       </c>
     </row>
@@ -13526,32 +13526,32 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>RM301</t>
+          <t>AVR</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>RM301</t>
+          <t>AVR</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>RM301</t>
+          <t>AVR</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>RM301</t>
+          <t>AVR</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>RM301</t>
+          <t>AVR</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>RM301</t>
+          <t>AVR</t>
         </is>
       </c>
     </row>
@@ -13563,32 +13563,32 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>RM302</t>
+          <t>main4</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>RM302</t>
+          <t>main4</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>RM302</t>
+          <t>main4</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>RM302</t>
+          <t>main4</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>RM302</t>
+          <t>main4</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>RM302</t>
+          <t>main4</t>
         </is>
       </c>
     </row>
@@ -13600,32 +13600,32 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>RM302</t>
+          <t>AVR</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>RM302</t>
+          <t>AVR</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>RM302</t>
+          <t>AVR</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>RM302</t>
+          <t>AVR</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>RM302</t>
+          <t>AVR</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>RM302</t>
+          <t>AVR</t>
         </is>
       </c>
     </row>
@@ -13693,32 +13693,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>CLV2</t>
+          <t>CLV1</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>CLV2</t>
+          <t>CLV1</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>CLV2</t>
+          <t>CLV1</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>CLV2</t>
+          <t>CLV1</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>CLV2</t>
+          <t>CLV1</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>CLV2</t>
+          <t>CLV1</t>
         </is>
       </c>
     </row>
@@ -13730,32 +13730,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>RM301</t>
+          <t>RM302</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>RM301</t>
+          <t>RM302</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>RM301</t>
+          <t>RM302</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>RM301</t>
+          <t>RM302</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>RM301</t>
+          <t>RM302</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>RM301</t>
+          <t>RM302</t>
         </is>
       </c>
     </row>
@@ -13804,32 +13804,32 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>RM302</t>
+          <t>AVR</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>RM302</t>
+          <t>AVR</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>RM302</t>
+          <t>AVR</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>RM302</t>
+          <t>AVR</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>RM302</t>
+          <t>AVR</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>RM302</t>
+          <t>AVR</t>
         </is>
       </c>
     </row>
@@ -13841,32 +13841,32 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>CLV1</t>
+          <t>CLV3</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>CLV1</t>
+          <t>CLV3</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>CLV1</t>
+          <t>CLV3</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>CLV1</t>
+          <t>CLV3</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>CLV1</t>
+          <t>CLV3</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>CLV1</t>
+          <t>CLV3</t>
         </is>
       </c>
     </row>
@@ -13915,32 +13915,32 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>RM302</t>
+          <t>AVR</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>RM302</t>
+          <t>AVR</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>RM302</t>
+          <t>AVR</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>RM302</t>
+          <t>AVR</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>RM302</t>
+          <t>AVR</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>RM302</t>
+          <t>AVR</t>
         </is>
       </c>
     </row>
@@ -13952,32 +13952,32 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>CLV1</t>
+          <t>CLV2</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>CLV1</t>
+          <t>CLV2</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>CLV1</t>
+          <t>CLV2</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>CLV1</t>
+          <t>CLV2</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>CLV1</t>
+          <t>CLV2</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>CLV1</t>
+          <t>CLV2</t>
         </is>
       </c>
     </row>
@@ -13989,32 +13989,32 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>CLV2</t>
+          <t>CLV1</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>CLV2</t>
+          <t>CLV1</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>CLV2</t>
+          <t>CLV1</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>CLV2</t>
+          <t>CLV1</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>CLV2</t>
+          <t>CLV1</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>CLV2</t>
+          <t>CLV1</t>
         </is>
       </c>
     </row>
@@ -14026,32 +14026,32 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>AVR</t>
+          <t>RM302</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>AVR</t>
+          <t>RM302</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>AVR</t>
+          <t>RM302</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>AVR</t>
+          <t>RM302</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>AVR</t>
+          <t>RM302</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>AVR</t>
+          <t>RM302</t>
         </is>
       </c>
     </row>
@@ -14063,32 +14063,32 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>RM301</t>
+          <t>RM302</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>RM301</t>
+          <t>RM302</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>RM301</t>
+          <t>RM302</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>RM301</t>
+          <t>RM302</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>RM301</t>
+          <t>RM302</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>RM301</t>
+          <t>RM302</t>
         </is>
       </c>
     </row>
@@ -14100,32 +14100,32 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>CLV2</t>
+          <t>CLV1</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>CLV2</t>
+          <t>CLV1</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>CLV2</t>
+          <t>CLV1</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>CLV2</t>
+          <t>CLV1</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>CLV2</t>
+          <t>CLV1</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>CLV2</t>
+          <t>CLV1</t>
         </is>
       </c>
     </row>
@@ -14174,32 +14174,32 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>RM302</t>
+          <t>RM301</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>RM302</t>
+          <t>RM301</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>RM302</t>
+          <t>RM301</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>RM302</t>
+          <t>RM301</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>RM302</t>
+          <t>RM301</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>RM302</t>
+          <t>RM301</t>
         </is>
       </c>
     </row>
@@ -14248,32 +14248,32 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>CLV2</t>
+          <t>CLV3</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>CLV2</t>
+          <t>CLV3</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>CLV2</t>
+          <t>CLV3</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>CLV2</t>
+          <t>CLV3</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>CLV2</t>
+          <t>CLV3</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>CLV2</t>
+          <t>CLV3</t>
         </is>
       </c>
     </row>
@@ -14285,32 +14285,32 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>CLV2</t>
+          <t>CLV1</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>CLV2</t>
+          <t>CLV1</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>CLV2</t>
+          <t>CLV1</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>CLV2</t>
+          <t>CLV1</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>CLV2</t>
+          <t>CLV1</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>CLV2</t>
+          <t>CLV1</t>
         </is>
       </c>
     </row>
@@ -14322,32 +14322,32 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>RM302</t>
+          <t>RM301</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>RM302</t>
+          <t>RM301</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>RM302</t>
+          <t>RM301</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>RM302</t>
+          <t>RM301</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>RM302</t>
+          <t>RM301</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>RM302</t>
+          <t>RM301</t>
         </is>
       </c>
     </row>
@@ -14359,32 +14359,32 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>CLV1</t>
+          <t>CLV3</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>CLV1</t>
+          <t>CLV3</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>CLV1</t>
+          <t>CLV3</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>CLV1</t>
+          <t>CLV3</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>CLV1</t>
+          <t>CLV3</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>CLV1</t>
+          <t>CLV3</t>
         </is>
       </c>
     </row>
@@ -14396,32 +14396,32 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>CLV3</t>
+          <t>CLV2</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>CLV3</t>
+          <t>CLV2</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>CLV3</t>
+          <t>CLV2</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>CLV3</t>
+          <t>CLV2</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>CLV3</t>
+          <t>CLV2</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>CLV3</t>
+          <t>CLV2</t>
         </is>
       </c>
     </row>
@@ -14433,32 +14433,32 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>CLV2</t>
+          <t>CLV3</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>CLV2</t>
+          <t>CLV3</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>CLV2</t>
+          <t>CLV3</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>CLV2</t>
+          <t>CLV3</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>CLV2</t>
+          <t>CLV3</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>CLV2</t>
+          <t>CLV3</t>
         </is>
       </c>
     </row>
@@ -14470,32 +14470,32 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>CLV1</t>
+          <t>CLV3</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>CLV1</t>
+          <t>CLV3</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>CLV1</t>
+          <t>CLV3</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>CLV1</t>
+          <t>CLV3</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>CLV1</t>
+          <t>CLV3</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>CLV1</t>
+          <t>CLV3</t>
         </is>
       </c>
     </row>
@@ -14507,32 +14507,32 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>CLV3</t>
+          <t>CLV2</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>CLV3</t>
+          <t>CLV2</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>CLV3</t>
+          <t>CLV2</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>CLV3</t>
+          <t>CLV2</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>CLV3</t>
+          <t>CLV2</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>CLV3</t>
+          <t>CLV2</t>
         </is>
       </c>
     </row>
@@ -14544,32 +14544,32 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>CLV1</t>
+          <t>CLV2</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>CLV1</t>
+          <t>CLV2</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>CLV1</t>
+          <t>CLV2</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>CLV1</t>
+          <t>CLV2</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>CLV1</t>
+          <t>CLV2</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>CLV1</t>
+          <t>CLV2</t>
         </is>
       </c>
     </row>
@@ -14581,32 +14581,32 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>CLV1</t>
+          <t>CLV3</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>CLV1</t>
+          <t>CLV3</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>CLV1</t>
+          <t>CLV3</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>CLV1</t>
+          <t>CLV3</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>CLV1</t>
+          <t>CLV3</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>CLV1</t>
+          <t>CLV3</t>
         </is>
       </c>
     </row>
@@ -14655,32 +14655,32 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>CLV3</t>
+          <t>CLV1</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>CLV3</t>
+          <t>CLV1</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>CLV3</t>
+          <t>CLV1</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>CLV3</t>
+          <t>CLV1</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>CLV3</t>
+          <t>CLV1</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>CLV3</t>
+          <t>CLV1</t>
         </is>
       </c>
     </row>
@@ -14692,32 +14692,32 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>RM301</t>
+          <t>RM302</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>RM301</t>
+          <t>RM302</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>RM301</t>
+          <t>RM302</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>RM301</t>
+          <t>RM302</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>RM301</t>
+          <t>RM302</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>RM301</t>
+          <t>RM302</t>
         </is>
       </c>
     </row>
@@ -14729,32 +14729,32 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>CLV1</t>
+          <t>CLV2</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>CLV1</t>
+          <t>CLV2</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>CLV1</t>
+          <t>CLV2</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>CLV1</t>
+          <t>CLV2</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>CLV1</t>
+          <t>CLV2</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>CLV1</t>
+          <t>CLV2</t>
         </is>
       </c>
     </row>
@@ -14766,32 +14766,32 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>CLV3</t>
+          <t>CLV1</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>CLV3</t>
+          <t>CLV1</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>CLV3</t>
+          <t>CLV1</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>CLV3</t>
+          <t>CLV1</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>CLV3</t>
+          <t>CLV1</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>CLV3</t>
+          <t>CLV1</t>
         </is>
       </c>
     </row>
@@ -14803,32 +14803,32 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>CLV2</t>
+          <t>CLV3</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>CLV2</t>
+          <t>CLV3</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>CLV2</t>
+          <t>CLV3</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>CLV2</t>
+          <t>CLV3</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>CLV2</t>
+          <t>CLV3</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>CLV2</t>
+          <t>CLV3</t>
         </is>
       </c>
     </row>
@@ -14840,32 +14840,32 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>CLV3</t>
+          <t>CLV2</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>CLV3</t>
+          <t>CLV2</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>CLV3</t>
+          <t>CLV2</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>CLV3</t>
+          <t>CLV2</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>CLV3</t>
+          <t>CLV2</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>CLV3</t>
+          <t>CLV2</t>
         </is>
       </c>
     </row>
@@ -14877,32 +14877,32 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>CLV2</t>
+          <t>CLV3</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>CLV2</t>
+          <t>CLV3</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>CLV2</t>
+          <t>CLV3</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>CLV2</t>
+          <t>CLV3</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>CLV2</t>
+          <t>CLV3</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>CLV2</t>
+          <t>CLV3</t>
         </is>
       </c>
     </row>
@@ -14988,32 +14988,32 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>CLV3</t>
+          <t>CLV1</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>CLV3</t>
+          <t>CLV1</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>CLV3</t>
+          <t>CLV1</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>CLV3</t>
+          <t>CLV1</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>CLV3</t>
+          <t>CLV1</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>CLV3</t>
+          <t>CLV1</t>
         </is>
       </c>
     </row>
@@ -15025,32 +15025,32 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>CLV3</t>
+          <t>CLV1</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>CLV3</t>
+          <t>CLV1</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>CLV3</t>
+          <t>CLV1</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>CLV3</t>
+          <t>CLV1</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>CLV3</t>
+          <t>CLV1</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>CLV3</t>
+          <t>CLV1</t>
         </is>
       </c>
     </row>
@@ -15062,32 +15062,32 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>RM301</t>
+          <t>RM302</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>RM301</t>
+          <t>RM302</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>RM301</t>
+          <t>RM302</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>RM301</t>
+          <t>RM302</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>RM301</t>
+          <t>RM302</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>RM301</t>
+          <t>RM302</t>
         </is>
       </c>
     </row>
@@ -15136,32 +15136,32 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>CLV1</t>
+          <t>CLV2</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>CLV1</t>
+          <t>CLV2</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>CLV1</t>
+          <t>CLV2</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>CLV1</t>
+          <t>CLV2</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>CLV1</t>
+          <t>CLV2</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>CLV1</t>
+          <t>CLV2</t>
         </is>
       </c>
     </row>
@@ -15173,32 +15173,32 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>CLV1</t>
+          <t>CLV2</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>CLV1</t>
+          <t>CLV2</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>CLV1</t>
+          <t>CLV2</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>CLV1</t>
+          <t>CLV2</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>CLV1</t>
+          <t>CLV2</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>CLV1</t>
+          <t>CLV2</t>
         </is>
       </c>
     </row>
@@ -15210,32 +15210,32 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>AVR</t>
+          <t>RM301</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>AVR</t>
+          <t>RM301</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>AVR</t>
+          <t>RM301</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>AVR</t>
+          <t>RM301</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>AVR</t>
+          <t>RM301</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>AVR</t>
+          <t>RM301</t>
         </is>
       </c>
     </row>
@@ -15247,32 +15247,32 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>CLV2</t>
+          <t>CLV3</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>CLV2</t>
+          <t>CLV3</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>CLV2</t>
+          <t>CLV3</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>CLV2</t>
+          <t>CLV3</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>CLV2</t>
+          <t>CLV3</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>CLV2</t>
+          <t>CLV3</t>
         </is>
       </c>
     </row>
@@ -15284,32 +15284,32 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>CLV2</t>
+          <t>CLV1</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>CLV2</t>
+          <t>CLV1</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>CLV2</t>
+          <t>CLV1</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>CLV2</t>
+          <t>CLV1</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>CLV2</t>
+          <t>CLV1</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>CLV2</t>
+          <t>CLV1</t>
         </is>
       </c>
     </row>
@@ -15321,32 +15321,32 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>main5</t>
+          <t>main2</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>main5</t>
+          <t>main2</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>main5</t>
+          <t>main2</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>main5</t>
+          <t>main2</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>main5</t>
+          <t>main2</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>main5</t>
+          <t>main2</t>
         </is>
       </c>
     </row>
@@ -15358,32 +15358,32 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>RM301</t>
+          <t>AVR</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>RM301</t>
+          <t>AVR</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>RM301</t>
+          <t>AVR</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>RM301</t>
+          <t>AVR</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>RM301</t>
+          <t>AVR</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>RM301</t>
+          <t>AVR</t>
         </is>
       </c>
     </row>
@@ -15395,32 +15395,32 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>AVR</t>
+          <t>main3</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>AVR</t>
+          <t>main3</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>AVR</t>
+          <t>main3</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>AVR</t>
+          <t>main3</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>AVR</t>
+          <t>main3</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>AVR</t>
+          <t>main3</t>
         </is>
       </c>
     </row>
@@ -15432,32 +15432,32 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>RM301</t>
+          <t>RM302</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>RM301</t>
+          <t>RM302</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>RM301</t>
+          <t>RM302</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>RM301</t>
+          <t>RM302</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>RM301</t>
+          <t>RM302</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>RM301</t>
+          <t>RM302</t>
         </is>
       </c>
     </row>
@@ -15469,32 +15469,32 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>main2</t>
+          <t>RM302</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>main2</t>
+          <t>RM302</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>main2</t>
+          <t>RM302</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>main2</t>
+          <t>RM302</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>main2</t>
+          <t>RM302</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>main2</t>
+          <t>RM302</t>
         </is>
       </c>
     </row>
@@ -15506,32 +15506,32 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>RM301</t>
+          <t>AVR</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>RM301</t>
+          <t>AVR</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>RM301</t>
+          <t>AVR</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>RM301</t>
+          <t>AVR</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>RM301</t>
+          <t>AVR</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>RM301</t>
+          <t>AVR</t>
         </is>
       </c>
     </row>
@@ -15543,32 +15543,32 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>RM302</t>
+          <t>main4</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>RM302</t>
+          <t>main4</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>RM302</t>
+          <t>main4</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>RM302</t>
+          <t>main4</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>RM302</t>
+          <t>main4</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>RM302</t>
+          <t>main4</t>
         </is>
       </c>
     </row>
@@ -15580,32 +15580,32 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>RM302</t>
+          <t>AVR</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>RM302</t>
+          <t>AVR</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>RM302</t>
+          <t>AVR</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>RM302</t>
+          <t>AVR</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>RM302</t>
+          <t>AVR</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>RM302</t>
+          <t>AVR</t>
         </is>
       </c>
     </row>
@@ -15723,17 +15723,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>IT_1st_9_60</t>
+          <t>vacant</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>IT_2nd_12_83</t>
+          <t>vacant</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>vacant</t>
+          <t>IT_1st_10_71</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -15743,7 +15743,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>vacant</t>
+          <t>IT_2nd_12_85</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -15788,17 +15788,17 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>IT_2nd_11_74</t>
+          <t>IT_4th_16_105</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>CS_3rd_6_41</t>
+          <t>IT_3rd_13_91</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>IT_2nd_12_81</t>
+          <t>CS_3rd_5_32</t>
         </is>
       </c>
     </row>
@@ -15810,17 +15810,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>IT_1st_9_60</t>
+          <t>vacant</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>IT_2nd_12_83</t>
+          <t>vacant</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>vacant</t>
+          <t>IT_1st_10_71</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -15830,7 +15830,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>vacant</t>
+          <t>IT_2nd_12_85</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -15875,17 +15875,17 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>IT_2nd_11_74</t>
+          <t>IT_4th_16_105</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>CS_3rd_6_41</t>
+          <t>IT_3rd_13_91</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>IT_2nd_12_81</t>
+          <t>CS_3rd_5_32</t>
         </is>
       </c>
     </row>
@@ -15897,7 +15897,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>IT_1st_9_60</t>
+          <t>vacant</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -15907,7 +15907,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>vacant</t>
+          <t>IT_2nd_12_83</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -15917,7 +15917,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>vacant</t>
+          <t>IT_2nd_12_85</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -15962,17 +15962,17 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>IT_2nd_11_74</t>
+          <t>IT_4th_16_105</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>CS_3rd_6_41</t>
+          <t>IT_3rd_13_91</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>IT_2nd_12_81</t>
+          <t>CS_3rd_5_32</t>
         </is>
       </c>
     </row>
@@ -15984,7 +15984,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>IT_1st_9_60</t>
+          <t>vacant</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -15994,7 +15994,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>vacant</t>
+          <t>IT_2nd_12_83</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -16004,7 +16004,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>vacant</t>
+          <t>IT_2nd_12_85</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -16049,17 +16049,17 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>IT_2nd_11_74</t>
+          <t>IT_4th_16_105</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>CS_3rd_6_41</t>
+          <t>IT_3rd_13_91</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>IT_2nd_12_81</t>
+          <t>CS_3rd_5_32</t>
         </is>
       </c>
     </row>
@@ -16071,7 +16071,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>IT_1st_9_60</t>
+          <t>vacant</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -16081,7 +16081,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>vacant</t>
+          <t>IT_2nd_12_84</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -16091,7 +16091,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>vacant</t>
+          <t>IT_2nd_12_85</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -16136,17 +16136,17 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>IT_3rd_13_90</t>
+          <t>vacant</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>CS_4th_7_47</t>
+          <t>IT_3rd_14_96</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>IT_3rd_13_89</t>
+          <t>CS_3rd_6_40</t>
         </is>
       </c>
     </row>
@@ -16158,7 +16158,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>IT_1st_9_60</t>
+          <t>vacant</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -16168,7 +16168,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>vacant</t>
+          <t>IT_2nd_12_84</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -16178,7 +16178,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>vacant</t>
+          <t>IT_2nd_12_85</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -16223,17 +16223,17 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>IT_3rd_13_90</t>
+          <t>vacant</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>CS_4th_7_47</t>
+          <t>IT_3rd_14_96</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>IT_3rd_13_89</t>
+          <t>CS_3rd_6_40</t>
         </is>
       </c>
     </row>
@@ -16245,7 +16245,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>IT_1st_9_60</t>
+          <t>vacant</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -16265,7 +16265,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>vacant</t>
+          <t>IT_2nd_12_85</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -16310,17 +16310,17 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>IT_3rd_13_90</t>
+          <t>vacant</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>CS_4th_7_47</t>
+          <t>IT_3rd_14_96</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>IT_3rd_13_89</t>
+          <t>CS_3rd_6_40</t>
         </is>
       </c>
     </row>
@@ -16332,7 +16332,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>IT_1st_9_60</t>
+          <t>vacant</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -16352,7 +16352,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>vacant</t>
+          <t>IT_2nd_12_85</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -16397,17 +16397,17 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>IT_3rd_13_90</t>
+          <t>vacant</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>CS_4th_7_47</t>
+          <t>IT_3rd_14_96</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>IT_3rd_13_89</t>
+          <t>CS_3rd_6_40</t>
         </is>
       </c>
     </row>
@@ -16419,7 +16419,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>IT_2nd_11_76</t>
+          <t>vacant</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -16484,17 +16484,17 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>IT_3rd_14_96</t>
+          <t>vacant</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>IT_1st_9_57</t>
+          <t>vacant</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>vacant</t>
+          <t>CS_4th_7_47</t>
         </is>
       </c>
     </row>
@@ -16506,7 +16506,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>IT_2nd_11_76</t>
+          <t>vacant</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -16571,17 +16571,17 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>IT_3rd_14_96</t>
+          <t>vacant</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>IT_1st_9_57</t>
+          <t>vacant</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>vacant</t>
+          <t>CS_4th_7_47</t>
         </is>
       </c>
     </row>
@@ -16593,7 +16593,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>IT_2nd_12_84</t>
+          <t>vacant</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -16658,17 +16658,17 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>IT_3rd_14_96</t>
+          <t>vacant</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>IT_1st_9_57</t>
+          <t>vacant</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>vacant</t>
+          <t>CS_4th_7_47</t>
         </is>
       </c>
     </row>
@@ -16680,7 +16680,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>IT_2nd_12_84</t>
+          <t>vacant</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -16745,17 +16745,17 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>IT_3rd_14_96</t>
+          <t>vacant</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>IT_1st_9_57</t>
+          <t>vacant</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>vacant</t>
+          <t>CS_4th_7_47</t>
         </is>
       </c>
     </row>
@@ -16832,17 +16832,17 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>IT_3rd_14_97</t>
+          <t>vacant</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>IT_2nd_11_73</t>
+          <t>vacant</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>vacant</t>
+          <t>CS_4th_7_48</t>
         </is>
       </c>
     </row>
@@ -16919,17 +16919,17 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>IT_3rd_14_97</t>
+          <t>vacant</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>IT_2nd_11_73</t>
+          <t>vacant</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>vacant</t>
+          <t>CS_4th_7_48</t>
         </is>
       </c>
     </row>
@@ -17006,17 +17006,17 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>IT_3rd_14_97</t>
+          <t>vacant</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>IT_2nd_11_73</t>
+          <t>vacant</t>
         </is>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>vacant</t>
+          <t>CS_4th_7_48</t>
         </is>
       </c>
     </row>
@@ -17093,17 +17093,17 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>IT_3rd_14_97</t>
+          <t>vacant</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>IT_2nd_11_73</t>
+          <t>vacant</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>vacant</t>
+          <t>CS_4th_7_48</t>
         </is>
       </c>
     </row>
@@ -17180,17 +17180,17 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>IT_4th_16_105</t>
+          <t>vacant</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>IT_2nd_12_82</t>
+          <t>vacant</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>vacant</t>
+          <t>CS_4th_7_49</t>
         </is>
       </c>
     </row>
@@ -17267,17 +17267,17 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>IT_4th_16_105</t>
+          <t>vacant</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>IT_2nd_12_82</t>
+          <t>vacant</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>vacant</t>
+          <t>CS_4th_7_49</t>
         </is>
       </c>
     </row>
@@ -17354,17 +17354,17 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>IT_4th_16_105</t>
+          <t>vacant</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>IT_2nd_12_82</t>
+          <t>vacant</t>
         </is>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>vacant</t>
+          <t>CS_4th_7_49</t>
         </is>
       </c>
     </row>
@@ -17441,17 +17441,17 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>IT_4th_16_105</t>
+          <t>vacant</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>IT_2nd_12_82</t>
+          <t>vacant</t>
         </is>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>vacant</t>
+          <t>CS_4th_7_49</t>
         </is>
       </c>
     </row>
@@ -18509,12 +18509,12 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>IT_3rd_13_91</t>
+          <t>vacant</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>vacant</t>
+          <t>CS_4th_8_53</t>
         </is>
       </c>
     </row>
@@ -18596,12 +18596,12 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>IT_3rd_13_91</t>
+          <t>vacant</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>vacant</t>
+          <t>CS_4th_8_53</t>
         </is>
       </c>
     </row>
@@ -18683,12 +18683,12 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>IT_3rd_13_91</t>
+          <t>vacant</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>vacant</t>
+          <t>CS_4th_8_53</t>
         </is>
       </c>
     </row>
@@ -18770,12 +18770,12 @@
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>IT_3rd_13_91</t>
+          <t>vacant</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>vacant</t>
+          <t>CS_4th_8_53</t>
         </is>
       </c>
     </row>
@@ -18857,12 +18857,12 @@
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>IT_3rd_14_98</t>
+          <t>vacant</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>vacant</t>
+          <t>CS_4th_8_54</t>
         </is>
       </c>
     </row>
@@ -18944,12 +18944,12 @@
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>IT_3rd_14_98</t>
+          <t>vacant</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>vacant</t>
+          <t>CS_4th_8_54</t>
         </is>
       </c>
     </row>
@@ -19031,12 +19031,12 @@
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>IT_3rd_14_98</t>
+          <t>vacant</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>vacant</t>
+          <t>CS_4th_8_54</t>
         </is>
       </c>
     </row>
@@ -19118,12 +19118,12 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>IT_3rd_14_98</t>
+          <t>vacant</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>vacant</t>
+          <t>CS_4th_8_54</t>
         </is>
       </c>
     </row>
@@ -19205,12 +19205,12 @@
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>IT_4th_15_103</t>
+          <t>vacant</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>vacant</t>
+          <t>IT_1st_9_57</t>
         </is>
       </c>
     </row>
@@ -19292,12 +19292,12 @@
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>IT_4th_15_103</t>
+          <t>vacant</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>vacant</t>
+          <t>IT_1st_9_57</t>
         </is>
       </c>
     </row>
@@ -19379,12 +19379,12 @@
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>IT_4th_15_103</t>
+          <t>vacant</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>vacant</t>
+          <t>IT_1st_9_57</t>
         </is>
       </c>
     </row>
@@ -19466,12 +19466,12 @@
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>IT_4th_15_103</t>
+          <t>vacant</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>vacant</t>
+          <t>IT_1st_9_57</t>
         </is>
       </c>
     </row>
@@ -19558,7 +19558,7 @@
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>vacant</t>
+          <t>IT_1st_10_65</t>
         </is>
       </c>
     </row>
@@ -19645,7 +19645,7 @@
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>vacant</t>
+          <t>IT_1st_10_65</t>
         </is>
       </c>
     </row>
@@ -19732,7 +19732,7 @@
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>vacant</t>
+          <t>IT_1st_10_65</t>
         </is>
       </c>
     </row>
@@ -19819,7 +19819,7 @@
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>vacant</t>
+          <t>IT_1st_10_65</t>
         </is>
       </c>
     </row>
@@ -19906,7 +19906,7 @@
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>vacant</t>
+          <t>IT_2nd_12_82</t>
         </is>
       </c>
     </row>
@@ -19993,7 +19993,7 @@
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>vacant</t>
+          <t>IT_2nd_12_82</t>
         </is>
       </c>
     </row>
@@ -20080,7 +20080,7 @@
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>vacant</t>
+          <t>IT_2nd_12_82</t>
         </is>
       </c>
     </row>
@@ -20167,7 +20167,7 @@
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>vacant</t>
+          <t>IT_2nd_12_82</t>
         </is>
       </c>
     </row>
@@ -21230,7 +21230,7 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>vacant</t>
+          <t>IT_3rd_14_97</t>
         </is>
       </c>
     </row>
@@ -21317,7 +21317,7 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>vacant</t>
+          <t>IT_3rd_14_97</t>
         </is>
       </c>
     </row>
@@ -21404,7 +21404,7 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>vacant</t>
+          <t>IT_3rd_14_97</t>
         </is>
       </c>
     </row>
@@ -21491,7 +21491,7 @@
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>vacant</t>
+          <t>IT_3rd_14_97</t>
         </is>
       </c>
     </row>
@@ -21578,7 +21578,7 @@
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>vacant</t>
+          <t>IT_4th_15_103</t>
         </is>
       </c>
     </row>
@@ -21665,7 +21665,7 @@
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>vacant</t>
+          <t>IT_4th_15_103</t>
         </is>
       </c>
     </row>
@@ -21752,7 +21752,7 @@
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>vacant</t>
+          <t>IT_4th_15_103</t>
         </is>
       </c>
     </row>
@@ -21839,7 +21839,7 @@
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>vacant</t>
+          <t>IT_4th_15_103</t>
         </is>
       </c>
     </row>
@@ -29303,82 +29303,82 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>CS_3rd_5_37</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>CS_1st_1_6</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>CS_1st_2_14</t>
-        </is>
-      </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>CS_1st_1_7</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>vacant</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>vacant</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>vacant</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>vacant</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>vacant</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>vacant</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>CS_1st_1_8</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
           <t>CS_1st_2_16</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>vacant</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>vacant</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>vacant</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>vacant</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>vacant</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>vacant</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>IT_1st_9_64</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>vacant</t>
-        </is>
-      </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>vacant</t>
+          <t>IT_1st_10_72</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>CS_1st_1_8</t>
+          <t>vacant</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
+          <t>CS_1st_1_5</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>CS_1st_2_13</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
           <t>CS_2nd_3_20</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>CS_1st_1_5</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>CS_3rd_6_44</t>
         </is>
       </c>
     </row>
@@ -29390,82 +29390,82 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>CS_3rd_5_37</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>CS_1st_1_6</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>CS_1st_2_14</t>
-        </is>
-      </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>CS_1st_1_7</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>vacant</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>vacant</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>vacant</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>vacant</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>vacant</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>vacant</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>CS_1st_1_8</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
           <t>CS_1st_2_16</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>vacant</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>vacant</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>vacant</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>vacant</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>vacant</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>vacant</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>IT_1st_9_64</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>vacant</t>
-        </is>
-      </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>vacant</t>
+          <t>IT_1st_10_72</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>CS_1st_1_8</t>
+          <t>vacant</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
+          <t>CS_1st_1_5</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>CS_1st_2_13</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
           <t>CS_2nd_3_20</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>CS_1st_1_5</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>CS_3rd_6_44</t>
         </is>
       </c>
     </row>
@@ -29477,17 +29477,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>CS_1st_1_7</t>
+          <t>CS_3rd_6_45</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>CS_2nd_3_23</t>
+          <t>CS_1st_2_15</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>CS_2nd_3_21</t>
+          <t>CS_1st_2_14</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -29542,17 +29542,17 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
+          <t>CS_1st_1_5</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>CS_1st_2_13</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
           <t>CS_2nd_3_20</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>CS_1st_1_5</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>CS_3rd_6_44</t>
         </is>
       </c>
     </row>
@@ -29564,17 +29564,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>CS_1st_1_7</t>
+          <t>CS_3rd_6_45</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>CS_2nd_3_23</t>
+          <t>CS_1st_2_15</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>CS_2nd_3_21</t>
+          <t>CS_1st_2_14</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -29629,17 +29629,17 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
+          <t>CS_1st_1_5</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>CS_1st_2_13</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
           <t>CS_2nd_3_20</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>CS_1st_1_5</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>CS_3rd_6_44</t>
         </is>
       </c>
     </row>
@@ -29651,17 +29651,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>CS_1st_2_15</t>
+          <t>IT_3rd_14_99</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>CS_3rd_5_37</t>
+          <t>CS_2nd_4_28</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>CS_2nd_4_28</t>
+          <t>CS_2nd_3_21</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -29716,17 +29716,17 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
+          <t>CS_2nd_4_27</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
           <t>CS_2nd_3_22</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>CS_1st_2_13</t>
-        </is>
-      </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>CS_4th_8_56</t>
+          <t>CS_3rd_5_36</t>
         </is>
       </c>
     </row>
@@ -29738,17 +29738,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>CS_1st_2_15</t>
+          <t>IT_3rd_14_99</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>CS_3rd_5_37</t>
+          <t>CS_2nd_4_28</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>CS_2nd_4_28</t>
+          <t>CS_2nd_3_21</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -29803,17 +29803,17 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
+          <t>CS_2nd_4_27</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
           <t>CS_2nd_3_22</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>CS_1st_2_13</t>
-        </is>
-      </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>CS_4th_8_56</t>
+          <t>CS_3rd_5_36</t>
         </is>
       </c>
     </row>
@@ -29825,17 +29825,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>vacant</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>CS_2nd_4_30</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>CS_3rd_6_45</t>
-        </is>
-      </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>IT_1st_9_62</t>
+          <t>CS_2nd_3_23</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -29890,17 +29890,17 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
+          <t>CS_2nd_4_27</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
           <t>CS_2nd_3_22</t>
         </is>
       </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>CS_1st_2_13</t>
-        </is>
-      </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>CS_4th_8_56</t>
+          <t>CS_3rd_5_36</t>
         </is>
       </c>
     </row>
@@ -29912,17 +29912,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>vacant</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
           <t>CS_2nd_4_30</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>CS_3rd_6_45</t>
-        </is>
-      </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>IT_1st_9_62</t>
+          <t>CS_2nd_3_23</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -29977,17 +29977,17 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
+          <t>CS_2nd_4_27</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
           <t>CS_2nd_3_22</t>
         </is>
       </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>CS_1st_2_13</t>
-        </is>
-      </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>CS_4th_8_56</t>
+          <t>CS_3rd_5_36</t>
         </is>
       </c>
     </row>
@@ -29999,17 +29999,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>IT_1st_9_63</t>
+          <t>vacant</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>IT_1st_10_72</t>
+          <t>IT_1st_9_64</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>IT_3rd_14_99</t>
+          <t>IT_1st_9_62</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -30064,17 +30064,17 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>CS_3rd_5_35</t>
+          <t>CS_2nd_4_29</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>CS_2nd_4_27</t>
+          <t>CS_3rd_6_44</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>IT_1st_10_69</t>
+          <t>CS_3rd_6_46</t>
         </is>
       </c>
     </row>
@@ -30086,17 +30086,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>IT_1st_9_63</t>
+          <t>vacant</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>IT_1st_10_72</t>
+          <t>IT_1st_9_64</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>IT_3rd_14_99</t>
+          <t>IT_1st_9_62</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -30151,17 +30151,17 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>CS_3rd_5_35</t>
+          <t>CS_2nd_4_29</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>CS_2nd_4_27</t>
+          <t>CS_3rd_6_44</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>IT_1st_10_69</t>
+          <t>CS_3rd_6_46</t>
         </is>
       </c>
     </row>
@@ -30173,17 +30173,17 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
+          <t>vacant</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
           <t>IT_1st_10_70</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>IT_1st_10_71</t>
-        </is>
-      </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>vacant</t>
+          <t>IT_1st_9_63</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -30238,17 +30238,17 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>CS_3rd_5_35</t>
+          <t>CS_2nd_4_29</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>CS_2nd_4_27</t>
+          <t>CS_3rd_6_44</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>IT_1st_10_69</t>
+          <t>CS_3rd_6_46</t>
         </is>
       </c>
     </row>
@@ -30260,17 +30260,17 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t>vacant</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
           <t>IT_1st_10_70</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>IT_1st_10_71</t>
-        </is>
-      </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>vacant</t>
+          <t>IT_1st_9_63</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -30325,17 +30325,17 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>CS_3rd_5_35</t>
+          <t>CS_2nd_4_29</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>CS_2nd_4_27</t>
+          <t>CS_3rd_6_44</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>IT_1st_10_69</t>
+          <t>CS_3rd_6_46</t>
         </is>
       </c>
     </row>
@@ -30347,17 +30347,17 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
+          <t>vacant</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
           <t>IT_3rd_13_92</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>vacant</t>
-        </is>
-      </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>vacant</t>
+          <t>IT_1st_10_71</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -30412,17 +30412,17 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>CS_3rd_5_38</t>
+          <t>CS_3rd_5_35</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>CS_2nd_4_29</t>
+          <t>CS_4th_8_56</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>IT_2nd_11_78</t>
+          <t>CS_4th_7_51</t>
         </is>
       </c>
     </row>
@@ -30434,17 +30434,17 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
+          <t>vacant</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
           <t>IT_3rd_13_92</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>vacant</t>
-        </is>
-      </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>vacant</t>
+          <t>IT_1st_10_71</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -30499,17 +30499,17 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>CS_3rd_5_38</t>
+          <t>CS_3rd_5_35</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>CS_2nd_4_29</t>
+          <t>CS_4th_8_56</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>IT_2nd_11_78</t>
+          <t>CS_4th_7_51</t>
         </is>
       </c>
     </row>
@@ -30586,17 +30586,17 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>CS_3rd_5_38</t>
+          <t>CS_3rd_5_35</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>CS_2nd_4_29</t>
+          <t>CS_4th_8_56</t>
         </is>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>IT_2nd_11_78</t>
+          <t>CS_4th_7_51</t>
         </is>
       </c>
     </row>
@@ -30673,17 +30673,17 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>CS_3rd_5_38</t>
+          <t>CS_3rd_5_35</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>CS_2nd_4_29</t>
+          <t>CS_4th_8_56</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>IT_2nd_11_78</t>
+          <t>CS_4th_7_51</t>
         </is>
       </c>
     </row>
@@ -30760,17 +30760,17 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>CS_3rd_6_46</t>
+          <t>CS_3rd_5_38</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>CS_3rd_5_36</t>
+          <t>CS_4th_8_55</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>IT_2nd_12_87</t>
+          <t>CS_4th_7_50</t>
         </is>
       </c>
     </row>
@@ -30847,17 +30847,17 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>CS_3rd_6_46</t>
+          <t>CS_3rd_5_38</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>CS_3rd_5_36</t>
+          <t>CS_4th_8_55</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>IT_2nd_12_87</t>
+          <t>CS_4th_7_50</t>
         </is>
       </c>
     </row>
@@ -30934,17 +30934,17 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>CS_3rd_6_46</t>
+          <t>CS_3rd_5_38</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>CS_3rd_5_36</t>
+          <t>CS_4th_8_55</t>
         </is>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>IT_2nd_12_87</t>
+          <t>CS_4th_7_50</t>
         </is>
       </c>
     </row>
@@ -31021,17 +31021,17 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>CS_3rd_6_46</t>
+          <t>CS_3rd_5_38</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>CS_3rd_5_36</t>
+          <t>CS_4th_8_55</t>
         </is>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>IT_2nd_12_87</t>
+          <t>CS_4th_7_50</t>
         </is>
       </c>
     </row>
@@ -32084,17 +32084,17 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>CS_4th_7_50</t>
+          <t>CS_3rd_6_43</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>CS_3rd_6_43</t>
+          <t>IT_2nd_11_79</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>IT_3rd_13_95</t>
+          <t>IT_1st_9_61</t>
         </is>
       </c>
     </row>
@@ -32171,17 +32171,17 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>CS_4th_7_50</t>
+          <t>CS_3rd_6_43</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>CS_3rd_6_43</t>
+          <t>IT_2nd_11_79</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>IT_3rd_13_95</t>
+          <t>IT_1st_9_61</t>
         </is>
       </c>
     </row>
@@ -32258,17 +32258,17 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>CS_4th_7_50</t>
+          <t>CS_3rd_6_43</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>CS_3rd_6_43</t>
+          <t>IT_2nd_11_79</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>IT_3rd_13_95</t>
+          <t>IT_1st_9_61</t>
         </is>
       </c>
     </row>
@@ -32345,17 +32345,17 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>CS_4th_7_50</t>
+          <t>CS_3rd_6_43</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>CS_3rd_6_43</t>
+          <t>IT_2nd_11_79</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>IT_3rd_13_95</t>
+          <t>IT_1st_9_61</t>
         </is>
       </c>
     </row>
@@ -32432,17 +32432,17 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>CS_4th_8_55</t>
+          <t>IT_1st_10_69</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>CS_4th_7_51</t>
+          <t>IT_2nd_12_87</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>IT_3rd_13_94</t>
+          <t>IT_2nd_11_80</t>
         </is>
       </c>
     </row>
@@ -32519,17 +32519,17 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>CS_4th_8_55</t>
+          <t>IT_1st_10_69</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>CS_4th_7_51</t>
+          <t>IT_2nd_12_87</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>IT_3rd_13_94</t>
+          <t>IT_2nd_11_80</t>
         </is>
       </c>
     </row>
@@ -32606,17 +32606,17 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>CS_4th_8_55</t>
+          <t>IT_1st_10_69</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>CS_4th_7_51</t>
+          <t>IT_2nd_12_87</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>IT_3rd_13_94</t>
+          <t>IT_2nd_11_80</t>
         </is>
       </c>
     </row>
@@ -32693,17 +32693,17 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>CS_4th_8_55</t>
+          <t>IT_1st_10_69</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>CS_4th_7_51</t>
+          <t>IT_2nd_12_87</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>IT_3rd_13_94</t>
+          <t>IT_2nd_11_80</t>
         </is>
       </c>
     </row>
@@ -32780,17 +32780,17 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>IT_1st_9_61</t>
+          <t>IT_2nd_11_78</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>IT_2nd_11_80</t>
+          <t>IT_2nd_12_88</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>IT_3rd_14_100</t>
+          <t>IT_2nd_12_86</t>
         </is>
       </c>
     </row>
@@ -32867,17 +32867,17 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>IT_1st_9_61</t>
+          <t>IT_2nd_11_78</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>IT_2nd_11_80</t>
+          <t>IT_2nd_12_88</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>IT_3rd_14_100</t>
+          <t>IT_2nd_12_86</t>
         </is>
       </c>
     </row>
@@ -32954,17 +32954,17 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>IT_1st_9_61</t>
+          <t>IT_2nd_11_78</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>IT_2nd_11_80</t>
+          <t>IT_2nd_12_88</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>IT_3rd_14_100</t>
+          <t>IT_2nd_12_86</t>
         </is>
       </c>
     </row>
@@ -33041,17 +33041,17 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>IT_1st_9_61</t>
+          <t>IT_2nd_11_78</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>IT_2nd_11_80</t>
+          <t>IT_2nd_12_88</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>IT_3rd_14_100</t>
+          <t>IT_2nd_12_86</t>
         </is>
       </c>
     </row>
@@ -33128,17 +33128,17 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>IT_2nd_11_79</t>
+          <t>IT_3rd_13_95</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>IT_2nd_12_86</t>
+          <t>IT_3rd_13_93</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>vacant</t>
+          <t>IT_3rd_14_100</t>
         </is>
       </c>
     </row>
@@ -33215,17 +33215,17 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>IT_2nd_11_79</t>
+          <t>IT_3rd_13_95</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>IT_2nd_12_86</t>
+          <t>IT_3rd_13_93</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>vacant</t>
+          <t>IT_3rd_14_100</t>
         </is>
       </c>
     </row>
@@ -33302,17 +33302,17 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>IT_2nd_11_79</t>
+          <t>IT_3rd_13_95</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>IT_2nd_12_86</t>
+          <t>IT_3rd_13_93</t>
         </is>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>vacant</t>
+          <t>IT_3rd_14_100</t>
         </is>
       </c>
     </row>
@@ -33389,17 +33389,17 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>IT_2nd_11_79</t>
+          <t>IT_3rd_13_95</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>IT_2nd_12_86</t>
+          <t>IT_3rd_13_93</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>vacant</t>
+          <t>IT_3rd_14_100</t>
         </is>
       </c>
     </row>
@@ -33476,17 +33476,17 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
+          <t>IT_3rd_13_94</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
           <t>IT_3rd_14_102</t>
         </is>
       </c>
-      <c r="P18" t="inlineStr">
-        <is>
-          <t>IT_2nd_12_88</t>
-        </is>
-      </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>vacant</t>
+          <t>IT_4th_15_104</t>
         </is>
       </c>
     </row>
@@ -33563,17 +33563,17 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
+          <t>IT_3rd_13_94</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
           <t>IT_3rd_14_102</t>
         </is>
       </c>
-      <c r="P19" t="inlineStr">
-        <is>
-          <t>IT_2nd_12_88</t>
-        </is>
-      </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>vacant</t>
+          <t>IT_4th_15_104</t>
         </is>
       </c>
     </row>
@@ -33650,17 +33650,17 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
+          <t>IT_3rd_13_94</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
           <t>IT_3rd_14_102</t>
         </is>
       </c>
-      <c r="P20" t="inlineStr">
-        <is>
-          <t>IT_2nd_12_88</t>
-        </is>
-      </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>vacant</t>
+          <t>IT_4th_15_104</t>
         </is>
       </c>
     </row>
@@ -33737,17 +33737,17 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
+          <t>IT_3rd_13_94</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
           <t>IT_3rd_14_102</t>
         </is>
       </c>
-      <c r="P21" t="inlineStr">
-        <is>
-          <t>IT_2nd_12_88</t>
-        </is>
-      </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>vacant</t>
+          <t>IT_4th_15_104</t>
         </is>
       </c>
     </row>
@@ -34800,12 +34800,12 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
+          <t>IT_4th_16_106</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
           <t>IT_3rd_14_101</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>IT_3rd_13_93</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
@@ -34887,12 +34887,12 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
+          <t>IT_4th_16_106</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
           <t>IT_3rd_14_101</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>IT_3rd_13_93</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
@@ -34974,12 +34974,12 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
+          <t>IT_4th_16_106</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
           <t>IT_3rd_14_101</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>IT_3rd_13_93</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
@@ -35061,12 +35061,12 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
+          <t>IT_4th_16_106</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
           <t>IT_3rd_14_101</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>IT_3rd_13_93</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
@@ -35153,7 +35153,7 @@
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>IT_4th_15_104</t>
+          <t>vacant</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
@@ -35240,7 +35240,7 @@
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>IT_4th_15_104</t>
+          <t>vacant</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
@@ -35327,7 +35327,7 @@
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>IT_4th_15_104</t>
+          <t>vacant</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
@@ -35414,7 +35414,7 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>IT_4th_15_104</t>
+          <t>vacant</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
@@ -35501,7 +35501,7 @@
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>IT_4th_16_106</t>
+          <t>vacant</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
@@ -35588,7 +35588,7 @@
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>IT_4th_16_106</t>
+          <t>vacant</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
@@ -35675,7 +35675,7 @@
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>IT_4th_16_106</t>
+          <t>vacant</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
@@ -35762,7 +35762,7 @@
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>IT_4th_16_106</t>
+          <t>vacant</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
